--- a/ol-handback/OpenLocalizationTestOrg/migrationtest_microsoftIntune/master/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/migrationtest_microsoftIntune/master/localization-status.xlsx
@@ -30,7 +30,7 @@
     <t>Ready for handoff</t>
   </si>
   <si>
-    <t>2016-03-23 04:04:05</t>
+    <t>2016-03-23 05:21:18</t>
   </si>
   <si>
     <t>30day-cfg-pol-11-start-mg-mobl-dev.png</t>
